--- a/exp/practice_trial/trial_exp_1/trial1.xlsx
+++ b/exp/practice_trial/trial_exp_1/trial1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabmac/Documents/RU/QP/exp/practice_trial/trial_exp_1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA3AD6B1-886A-5140-ABEA-D8C3C6E0D033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD3A59AD-9A2A-6B4D-A448-887410749314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4600" yWindow="22920" windowWidth="29400" windowHeight="17420" xr2:uid="{3F2A3BBB-5493-3B47-9535-E054F2D883BD}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{3F2A3BBB-5493-3B47-9535-E054F2D883BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -176,9 +176,6 @@
     <t>right</t>
   </si>
   <si>
-    <t>correct</t>
-  </si>
-  <si>
     <t>../image/kids.png</t>
   </si>
   <si>
@@ -258,6 +255,9 @@
   </si>
   <si>
     <t>donut</t>
+  </si>
+  <si>
+    <t>correct_key</t>
   </si>
 </sst>
 </file>
@@ -798,7 +798,7 @@
   <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -832,7 +832,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>5</v>
@@ -865,10 +865,10 @@
         <v>45</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="S1" s="2"/>
     </row>
@@ -889,7 +889,7 @@
         <v>16</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>18</v>
@@ -917,16 +917,16 @@
         <v>19</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q2" s="4" t="s">
         <v>20</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:19" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
@@ -946,7 +946,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>22</v>
@@ -974,16 +974,16 @@
         <v>19</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q3" s="4" t="s">
         <v>23</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:19" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
@@ -1003,7 +1003,7 @@
         <v>16</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>27</v>
@@ -1031,16 +1031,16 @@
         <v>19</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q4" s="4" t="s">
         <v>28</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:19" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
@@ -1060,7 +1060,7 @@
         <v>16</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>30</v>
@@ -1088,16 +1088,16 @@
         <v>19</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q5" s="4" t="s">
         <v>24</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:19" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
@@ -1117,7 +1117,7 @@
         <v>16</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>33</v>
@@ -1145,16 +1145,16 @@
         <v>19</v>
       </c>
       <c r="O6" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q6" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="P6" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>73</v>
-      </c>
       <c r="R6" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:19" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
@@ -1174,7 +1174,7 @@
         <v>16</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>35</v>
@@ -1202,16 +1202,16 @@
         <v>19</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q7" s="4" t="s">
         <v>36</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:19" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
@@ -1231,7 +1231,7 @@
         <v>16</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>39</v>
@@ -1259,16 +1259,16 @@
         <v>19</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q8" s="4" t="s">
         <v>40</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:19" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
@@ -1288,7 +1288,7 @@
         <v>16</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>42</v>
@@ -1316,16 +1316,16 @@
         <v>19</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q9" s="4" t="s">
         <v>43</v>
       </c>
       <c r="R9" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="18" x14ac:dyDescent="0.2">
